--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/05.DoiMoiBH/DM2101.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/05.DoiMoiBH/DM2101.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\05.DoiMoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\05.DoiMoiBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">Số điện thoại: </t>
   </si>
   <si>
-    <t>ĐC: Số 233 - 234, khu C (lô C6), khu đô thị mới Đại Kim - Định Công - Phường Đại Kim - Quận Hoàng Mai - Hà Nội</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -92,13 +89,16 @@
     <t>Website: http://vn-et.com</t>
   </si>
   <si>
-    <t>Người đại diện: Đại lý</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                         Hà Nội, ngày 04 tháng 01 Năm 2021</t>
   </si>
   <si>
     <t>Nguyễn Tất Hào</t>
+  </si>
+  <si>
+    <t>Người đại diện: Đại lý GPS Tây Ninh</t>
+  </si>
+  <si>
+    <t>ĐC: Tầng 1, Tòa nhà Sơn Hà, Số 02, Phố Thanh Lâm, Phường Minh Khai, Quận Bắc Từ Liêm, Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -312,7 +312,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -384,7 +383,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +398,18 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -418,16 +428,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,97 +788,97 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D2" sqref="D2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="29" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="46" style="28" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" style="30" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="40" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="39" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="4" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="A5" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
@@ -885,226 +886,221 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="M9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
       <c r="L10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D15" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="47" t="s">
+      <c r="H16" s="39"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A22:F22"/>
+  <mergeCells count="16">
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
@@ -1115,6 +1111,12 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0.39370078740157483" header="0.43307086614173229" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
